--- a/Analytics/B1/TeamFirstCard_b1.xlsx
+++ b/Analytics/B1/TeamFirstCard_b1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="31">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -43,6 +43,18 @@
     <t>4</t>
   </si>
   <si>
+    <t>St Truiden</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -67,64 +79,40 @@
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>Kortrijk</t>
   </si>
   <si>
     <t>St. Gilloise</t>
   </si>
   <si>
-    <t>Eupen</t>
-  </si>
-  <si>
-    <t>Oud-Heverlee Leuven</t>
+    <t>Mechelen</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
   </si>
   <si>
     <t>Genk</t>
   </si>
   <si>
-    <t>Kortrijk</t>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
   </si>
   <si>
     <t>Westerlo</t>
-  </si>
-  <si>
-    <t>Cercle Brugge</t>
-  </si>
-  <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Charleroi</t>
-  </si>
-  <si>
-    <t>St Truiden</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Mechelen</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Gent</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -192,10 +180,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -203,10 +191,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -214,10 +202,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -225,119 +213,9 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -357,7 +235,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -368,10 +246,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -379,10 +257,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -390,10 +268,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -401,141 +279,97 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -555,7 +389,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -566,10 +400,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -577,10 +411,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -588,10 +422,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -599,130 +433,86 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -742,7 +532,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -753,10 +543,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -764,10 +554,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -775,10 +565,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -786,130 +576,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -940,10 +664,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +675,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -962,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -973,141 +697,97 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1138,10 +818,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1149,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1160,10 +840,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1171,141 +851,97 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1336,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1347,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1358,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1369,141 +1005,97 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1534,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1545,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1556,10 +1148,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1567,86 +1159,42 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1677,10 +1225,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1688,10 +1236,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1699,10 +1247,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1710,142 +1258,76 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1346,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1875,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1886,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1897,10 +1379,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1908,18 +1390,18 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1927,111 +1409,23 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2051,7 +1445,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2062,10 +1456,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2073,10 +1467,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2084,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2095,142 +1489,76 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +1577,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2263,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2271,10 +1599,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2282,10 +1610,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2293,141 +1621,97 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/B1/TeamFirstCard_b1.xlsx
+++ b/Analytics/B1/TeamFirstCard_b1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="34">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -43,31 +43,46 @@
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Dender</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>St. Gilloise</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
     <t>St Truiden</t>
   </si>
   <si>
-    <t>Charleroi</t>
-  </si>
-  <si>
     <t>Oud-Heverlee Leuven</t>
   </si>
   <si>
-    <t>Dender</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>Westerlo</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
   <si>
     <t>10</t>
@@ -79,40 +94,34 @@
     <t>12</t>
   </si>
   <si>
-    <t>Kortrijk</t>
-  </si>
-  <si>
-    <t>St. Gilloise</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>Mechelen</t>
   </si>
   <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
     <t>Anderlecht</t>
   </si>
   <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Club Brugge</t>
-  </si>
-  <si>
-    <t>Genk</t>
-  </si>
-  <si>
     <t>Cercle Brugge</t>
   </si>
   <si>
-    <t>Gent</t>
-  </si>
-  <si>
     <t>Beerschot VA</t>
-  </si>
-  <si>
-    <t>Westerlo</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -180,10 +189,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -191,10 +200,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -202,10 +211,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -213,9 +222,64 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -235,7 +299,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -246,10 +310,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -257,10 +321,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -268,7 +332,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -287,21 +351,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -309,54 +373,54 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -364,12 +428,34 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="n">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -389,7 +475,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -400,10 +486,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -411,7 +497,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -422,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -433,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -441,10 +527,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -452,10 +538,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -463,21 +549,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -485,10 +571,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -496,10 +582,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -507,12 +593,23 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -532,7 +629,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -543,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -565,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -579,15 +676,15 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -595,10 +692,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -606,10 +703,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -617,10 +714,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -628,12 +725,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -664,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -675,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -686,10 +794,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -697,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -705,43 +813,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -749,10 +857,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -760,10 +868,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -771,10 +879,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -782,12 +890,45 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -818,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -829,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -840,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -851,18 +992,18 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -870,10 +1011,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -881,10 +1022,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -892,43 +1033,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -936,10 +1077,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -972,10 +1113,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -983,10 +1124,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -994,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1005,18 +1146,18 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1024,10 +1165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1035,10 +1176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1046,10 +1187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1057,10 +1198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -1068,34 +1209,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1126,10 +1278,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1137,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1148,10 +1300,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1159,7 +1311,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1167,10 +1319,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1178,10 +1330,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1189,12 +1341,45 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1225,10 +1410,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1247,10 +1432,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1258,7 +1443,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1266,10 +1451,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1277,32 +1462,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1310,10 +1495,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1321,10 +1506,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1346,7 +1531,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1357,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1368,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1379,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1390,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1398,10 +1583,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1409,23 +1594,56 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="n">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1445,7 +1663,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1456,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1467,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1478,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1489,75 +1707,108 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1577,7 +1828,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1588,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1599,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1610,10 +1861,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1621,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1629,10 +1880,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1640,10 +1891,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1651,10 +1902,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -1662,21 +1913,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1684,10 +1935,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1695,10 +1946,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1706,12 +1957,23 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
       </c>
     </row>
